--- a/Code/Results/Cases/Case_3_104/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_104/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.68822437354628</v>
+        <v>9.921940299144911</v>
       </c>
       <c r="C2">
-        <v>8.305344592347019</v>
+        <v>5.087245312770772</v>
       </c>
       <c r="D2">
-        <v>9.933289489642734</v>
+        <v>10.73728626441013</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23.35329501723708</v>
+        <v>33.25604469951789</v>
       </c>
       <c r="G2">
-        <v>2.100359247366905</v>
+        <v>3.656053689898157</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>14.01993502155304</v>
+        <v>22.47910669656748</v>
       </c>
       <c r="J2">
-        <v>8.301371417097299</v>
+        <v>11.3796198932624</v>
       </c>
       <c r="K2">
-        <v>12.42144039662733</v>
+        <v>10.03814764600269</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.70646741031856</v>
+        <v>24.49909318008374</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.81827208935561</v>
+        <v>9.602431641741099</v>
       </c>
       <c r="C3">
-        <v>7.796406388805653</v>
+        <v>4.855981155922448</v>
       </c>
       <c r="D3">
-        <v>9.384234593276288</v>
+        <v>10.6268897115429</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.02916165331674</v>
+        <v>33.32047813878802</v>
       </c>
       <c r="G3">
-        <v>2.105296313443449</v>
+        <v>3.65788762994707</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>14.25027523126542</v>
+        <v>22.58825463905698</v>
       </c>
       <c r="J3">
-        <v>8.029400390835297</v>
+        <v>11.36116819666873</v>
       </c>
       <c r="K3">
-        <v>11.69592128909471</v>
+        <v>9.819035691043004</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.78895180978813</v>
+        <v>24.59612689651433</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.25349888225131</v>
+        <v>9.401864274649773</v>
       </c>
       <c r="C4">
-        <v>7.466873592519841</v>
+        <v>4.708529636081979</v>
       </c>
       <c r="D4">
-        <v>9.034621919341893</v>
+        <v>10.56064387513844</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>22.85058377798657</v>
+        <v>33.36846784632593</v>
       </c>
       <c r="G4">
-        <v>2.108419337194361</v>
+        <v>3.659073094977194</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>14.4024835874426</v>
+        <v>22.6596610653076</v>
       </c>
       <c r="J4">
-        <v>7.863091909737821</v>
+        <v>11.35210217758756</v>
       </c>
       <c r="K4">
-        <v>11.22689883526786</v>
+        <v>9.683172433075352</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.85429222251908</v>
+        <v>24.66098613734018</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.01564459028346</v>
+        <v>9.319151430931703</v>
       </c>
       <c r="C5">
-        <v>7.328313871564363</v>
+        <v>4.647147431292371</v>
       </c>
       <c r="D5">
-        <v>8.889154251284143</v>
+        <v>10.53406270417903</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>22.78287667459085</v>
+        <v>33.39013786892627</v>
       </c>
       <c r="G5">
-        <v>2.109715602579105</v>
+        <v>3.659571169788117</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>14.46711114250896</v>
+        <v>22.68986320510084</v>
       </c>
       <c r="J5">
-        <v>7.795581277839701</v>
+        <v>11.34897951253314</v>
       </c>
       <c r="K5">
-        <v>11.02989243994782</v>
+        <v>9.627547540010763</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.88444651250028</v>
+        <v>24.68874197657875</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.97568376564125</v>
+        <v>9.305361636748387</v>
       </c>
       <c r="C6">
-        <v>7.305048661763055</v>
+        <v>4.636879251323616</v>
       </c>
       <c r="D6">
-        <v>8.864823184913115</v>
+        <v>10.5296747546231</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>22.77193733357165</v>
+        <v>33.39386366186236</v>
       </c>
       <c r="G6">
-        <v>2.109932288313427</v>
+        <v>3.659654781361944</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14.47799662111354</v>
+        <v>22.69494488634605</v>
       </c>
       <c r="J6">
-        <v>7.784389702022533</v>
+        <v>11.34849560149896</v>
       </c>
       <c r="K6">
-        <v>10.99682647890459</v>
+        <v>9.618297619711171</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.88966185316798</v>
+        <v>24.69343077430645</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.25032229186525</v>
+        <v>9.400752578011854</v>
       </c>
       <c r="C7">
-        <v>7.465022202446919</v>
+        <v>4.707706945562177</v>
       </c>
       <c r="D7">
-        <v>9.032672017560444</v>
+        <v>10.5602836775808</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>22.84965026083627</v>
+        <v>33.36875154454219</v>
       </c>
       <c r="G7">
-        <v>2.108436722767886</v>
+        <v>3.659079751439052</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>14.40334478091476</v>
+        <v>22.66006391444017</v>
       </c>
       <c r="J7">
-        <v>7.86218025678432</v>
+        <v>11.35205774580283</v>
       </c>
       <c r="K7">
-        <v>11.22426565601483</v>
+        <v>9.682423206884092</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.8546848289764</v>
+        <v>24.66135510015043</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.39461368291694</v>
+        <v>9.812755261027704</v>
       </c>
       <c r="C8">
-        <v>8.133404899655416</v>
+        <v>5.008680309741789</v>
       </c>
       <c r="D8">
-        <v>9.746644711849507</v>
+        <v>10.69891919776174</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>23.23725103693904</v>
+        <v>33.27650927595106</v>
       </c>
       <c r="G8">
-        <v>2.102042873982397</v>
+        <v>3.656673728441713</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>14.09705055097137</v>
+        <v>22.51582978525059</v>
       </c>
       <c r="J8">
-        <v>8.207506126824358</v>
+        <v>11.37278970579855</v>
       </c>
       <c r="K8">
-        <v>12.17619180693426</v>
+        <v>9.962917121402992</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.73175601443054</v>
+        <v>24.53145297913323</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.39633224089311</v>
+        <v>10.58097209770023</v>
       </c>
       <c r="C9">
-        <v>9.308757177586926</v>
+        <v>5.552762261653081</v>
       </c>
       <c r="D9">
-        <v>11.04276766994648</v>
+        <v>10.98173346374754</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>24.16209377968747</v>
+        <v>33.16269856210133</v>
       </c>
       <c r="G9">
-        <v>2.090204822160076</v>
+        <v>3.652424838237589</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.58737469009598</v>
+        <v>22.26782407325422</v>
       </c>
       <c r="J9">
-        <v>8.886499526475863</v>
+        <v>11.43126888985285</v>
       </c>
       <c r="K9">
-        <v>13.85484979607132</v>
+        <v>10.49931529633936</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.61499371454243</v>
+        <v>24.31872452096871</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.72085885124054</v>
+        <v>11.11531225801192</v>
       </c>
       <c r="C10">
-        <v>10.0901621625585</v>
+        <v>5.921226049061376</v>
       </c>
       <c r="D10">
-        <v>11.92684381465402</v>
+        <v>11.19448011913829</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>24.94455527535755</v>
+        <v>33.12021789586265</v>
       </c>
       <c r="G10">
-        <v>2.08189456868723</v>
+        <v>3.64958627796544</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>13.27679426289954</v>
+        <v>22.1068672342915</v>
       </c>
       <c r="J10">
-        <v>9.382200496168787</v>
+        <v>11.48489198106684</v>
       </c>
       <c r="K10">
-        <v>14.97286454393515</v>
+        <v>10.88115339242874</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.61579079851239</v>
+        <v>24.18819674654653</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.29213963900848</v>
+        <v>11.35082705644589</v>
       </c>
       <c r="C11">
-        <v>10.42801441282047</v>
+        <v>6.081555159517225</v>
       </c>
       <c r="D11">
-        <v>12.3136252453257</v>
+        <v>11.29197294879144</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>25.32318483860784</v>
+        <v>33.10986128912306</v>
       </c>
       <c r="G11">
-        <v>2.078188710029416</v>
+        <v>3.648355775967352</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>13.15150167533711</v>
+        <v>22.03826317384504</v>
       </c>
       <c r="J11">
-        <v>9.606300555560155</v>
+        <v>11.5115476656727</v>
       </c>
       <c r="K11">
-        <v>15.45652612907095</v>
+        <v>11.05144362735292</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.63732927589041</v>
+        <v>24.13444316307361</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.50401672338129</v>
+        <v>11.4388489726549</v>
       </c>
       <c r="C12">
-        <v>10.55343980084075</v>
+        <v>6.141186611945034</v>
       </c>
       <c r="D12">
-        <v>12.45784749460525</v>
+        <v>11.32896265944442</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>25.46983630005299</v>
+        <v>33.10723068679175</v>
       </c>
       <c r="G12">
-        <v>2.07679528870425</v>
+        <v>3.647898507614061</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13.10655623889529</v>
+        <v>22.01294900801853</v>
       </c>
       <c r="J12">
-        <v>9.69091285162178</v>
+        <v>11.521961576216</v>
       </c>
       <c r="K12">
-        <v>15.63610812488956</v>
+        <v>11.11538009815986</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.64872790731087</v>
+        <v>24.11489951654572</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.45858264346379</v>
+        <v>11.41994468755143</v>
       </c>
       <c r="C13">
-        <v>10.5265385422778</v>
+        <v>6.128392499839538</v>
       </c>
       <c r="D13">
-        <v>12.42688676904093</v>
+        <v>11.32099358746249</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>25.4381065994817</v>
+        <v>33.10773979005147</v>
       </c>
       <c r="G13">
-        <v>2.077094959771391</v>
+        <v>3.647996602458696</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13.11612144993287</v>
+        <v>22.01837128829685</v>
       </c>
       <c r="J13">
-        <v>9.672701847785262</v>
+        <v>11.5197046122687</v>
       </c>
       <c r="K13">
-        <v>15.5975904033957</v>
+        <v>11.1016355266673</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.64612564931651</v>
+        <v>24.11907244525721</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.30965992804746</v>
+        <v>11.35809237084986</v>
       </c>
       <c r="C14">
-        <v>10.43838344371993</v>
+        <v>6.086482927707404</v>
       </c>
       <c r="D14">
-        <v>12.32553558408861</v>
+        <v>11.29501486384005</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>25.33518430560668</v>
+        <v>33.10961898368498</v>
       </c>
       <c r="G14">
-        <v>2.078073878696941</v>
+        <v>3.648317982188117</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13.14775266361356</v>
+        <v>22.03616723502279</v>
       </c>
       <c r="J14">
-        <v>9.613266904826245</v>
+        <v>11.51239804346083</v>
       </c>
       <c r="K14">
-        <v>15.47137188983109</v>
+        <v>11.05671503676618</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.63820093139599</v>
+        <v>24.1328190118796</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.21786159922326</v>
+        <v>11.32005256656855</v>
       </c>
       <c r="C15">
-        <v>10.3840594622299</v>
+        <v>6.060670327537558</v>
       </c>
       <c r="D15">
-        <v>12.26316222463421</v>
+        <v>11.27911050652988</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>25.27256787734176</v>
+        <v>33.11093823245867</v>
       </c>
       <c r="G15">
-        <v>2.078674760045064</v>
+        <v>3.648515967761779</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>13.16745956692792</v>
+        <v>22.0471543587411</v>
       </c>
       <c r="J15">
-        <v>9.576827513143465</v>
+        <v>11.50796406482988</v>
       </c>
       <c r="K15">
-        <v>15.39359502364022</v>
+        <v>11.02912681413018</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.63377494812412</v>
+        <v>24.14134497007723</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.68289870308008</v>
+        <v>11.0997620567712</v>
       </c>
       <c r="C16">
-        <v>10.06772998679305</v>
+        <v>5.910598507296209</v>
       </c>
       <c r="D16">
-        <v>11.90125412948018</v>
+        <v>11.18812040677716</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>24.92026842057279</v>
+        <v>33.12107534320569</v>
       </c>
       <c r="G16">
-        <v>2.082138186858295</v>
+        <v>3.649667913388462</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13.28532093508672</v>
+        <v>22.11144363467798</v>
       </c>
       <c r="J16">
-        <v>9.367522537960724</v>
+        <v>11.48319504591618</v>
       </c>
       <c r="K16">
-        <v>14.94075556860256</v>
+        <v>10.86995082209426</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.61482618019432</v>
+        <v>24.19182309283141</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.34673842984869</v>
+        <v>10.96262844159705</v>
       </c>
       <c r="C17">
-        <v>9.869174448340983</v>
+        <v>5.816642001788022</v>
       </c>
       <c r="D17">
-        <v>11.6752673339125</v>
+        <v>11.13246128584086</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>24.70996317576023</v>
+        <v>33.1295924953883</v>
       </c>
       <c r="G17">
-        <v>2.084281414280576</v>
+        <v>3.650390129460152</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.36185769275364</v>
+        <v>22.15206593369452</v>
       </c>
       <c r="J17">
-        <v>9.238725220639623</v>
+        <v>11.46857581725572</v>
       </c>
       <c r="K17">
-        <v>14.65657636424327</v>
+        <v>10.77138528553297</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.60876557304734</v>
+        <v>24.22423236028949</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.15044359407788</v>
+        <v>10.88304524205522</v>
       </c>
       <c r="C18">
-        <v>9.753311226385097</v>
+        <v>5.761916451788431</v>
       </c>
       <c r="D18">
-        <v>11.54383804134229</v>
+        <v>11.10051663161964</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24.59113604698442</v>
+        <v>33.13533540918835</v>
       </c>
       <c r="G18">
-        <v>2.085521207448068</v>
+        <v>3.650811251867383</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.40737171442927</v>
+        <v>22.1758652272758</v>
       </c>
       <c r="J18">
-        <v>9.164515233763272</v>
+        <v>11.46038050525115</v>
       </c>
       <c r="K18">
-        <v>14.49077620069101</v>
+        <v>10.71437527662225</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.60726095859661</v>
+        <v>24.24340251369036</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.0834747077336</v>
+        <v>10.8559806522697</v>
       </c>
       <c r="C19">
-        <v>9.713796376586108</v>
+        <v>5.743270926741745</v>
       </c>
       <c r="D19">
-        <v>11.49909087050983</v>
+        <v>11.0897135288604</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>24.55126948807082</v>
+        <v>33.13742476801106</v>
       </c>
       <c r="G19">
-        <v>2.085942217369169</v>
+        <v>3.650954820897033</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.42303245026006</v>
+        <v>22.183997844328</v>
       </c>
       <c r="J19">
-        <v>9.139368464884701</v>
+        <v>11.45764250032822</v>
       </c>
       <c r="K19">
-        <v>14.4342355529809</v>
+        <v>10.69501994662889</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.60708580744207</v>
+        <v>24.24998399912827</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.38282771941986</v>
+        <v>10.97730035363913</v>
       </c>
       <c r="C20">
-        <v>9.890482621513785</v>
+        <v>5.826714913251678</v>
       </c>
       <c r="D20">
-        <v>11.69947410837851</v>
+        <v>11.13837938052753</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>24.73212948412285</v>
+        <v>33.12859845707711</v>
       </c>
       <c r="G20">
-        <v>2.084052538501144</v>
+        <v>3.650312656348198</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.35355440539478</v>
+        <v>22.1476966530823</v>
       </c>
       <c r="J20">
-        <v>9.252449668060644</v>
+        <v>11.47011002254786</v>
       </c>
       <c r="K20">
-        <v>14.68707063152416</v>
+        <v>10.78191107425474</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.60920425159137</v>
+        <v>24.22072754690186</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.35352269787822</v>
+        <v>11.37629200220121</v>
       </c>
       <c r="C21">
-        <v>10.46434471951747</v>
+        <v>6.098822383757665</v>
       </c>
       <c r="D21">
-        <v>12.35536594480531</v>
+        <v>11.30264375763841</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>25.36532619240224</v>
+        <v>33.10903196696338</v>
       </c>
       <c r="G21">
-        <v>2.077786084325768</v>
+        <v>3.64822334950408</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>13.13839226271727</v>
+        <v>22.03092208654897</v>
       </c>
       <c r="J21">
-        <v>9.630731499553979</v>
+        <v>11.51453552016509</v>
       </c>
       <c r="K21">
-        <v>15.50854206758723</v>
+        <v>11.06992461124027</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.64043903728804</v>
+        <v>24.12875926051202</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.96198480364349</v>
+        <v>11.63025151810597</v>
       </c>
       <c r="C22">
-        <v>10.82476791226676</v>
+        <v>6.270343492272305</v>
       </c>
       <c r="D22">
-        <v>12.77094789560428</v>
+        <v>11.41040130718862</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>25.79823545569736</v>
+        <v>33.10377049257245</v>
       </c>
       <c r="G22">
-        <v>2.073747923661537</v>
+        <v>3.646908534179331</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.01245105382046</v>
+        <v>21.95847802886257</v>
       </c>
       <c r="J22">
-        <v>9.876490507818691</v>
+        <v>11.54543248593466</v>
       </c>
       <c r="K22">
-        <v>16.02462328639943</v>
+        <v>11.25493543734408</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.67984418031581</v>
+        <v>24.07338501969999</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.63959674628133</v>
+        <v>11.49535390108403</v>
       </c>
       <c r="C23">
-        <v>10.63373386802687</v>
+        <v>6.179387196310312</v>
       </c>
       <c r="D23">
-        <v>12.55034743708421</v>
+        <v>11.35286260531708</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>25.56543521491056</v>
+        <v>33.10588966563376</v>
       </c>
       <c r="G23">
-        <v>2.075898202130082</v>
+        <v>3.647605653930951</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>13.07825376904356</v>
+        <v>21.99678791252742</v>
       </c>
       <c r="J23">
-        <v>9.745472329522636</v>
+        <v>11.52877365709071</v>
       </c>
       <c r="K23">
-        <v>15.75107737762859</v>
+        <v>11.15650477585587</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.65700988314707</v>
+        <v>24.10250533012982</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.36652119798514</v>
+        <v>10.97066949146864</v>
       </c>
       <c r="C24">
-        <v>9.88085452732294</v>
+        <v>5.822163154812436</v>
       </c>
       <c r="D24">
-        <v>11.6885349155</v>
+        <v>11.13570363772732</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>24.7221016177121</v>
+        <v>33.12904522576554</v>
       </c>
       <c r="G24">
-        <v>2.084155989436286</v>
+        <v>3.650347663527504</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13.35730362694179</v>
+        <v>22.14967061876224</v>
       </c>
       <c r="J24">
-        <v>9.246245348323466</v>
+        <v>11.46941575544031</v>
       </c>
       <c r="K24">
-        <v>14.67329171753194</v>
+        <v>10.77715343020242</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.60899977362184</v>
+        <v>24.22231039852848</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.88061231753053</v>
+        <v>10.37804452492168</v>
       </c>
       <c r="C25">
-        <v>9.005266964001063</v>
+        <v>5.4108705192409</v>
       </c>
       <c r="D25">
-        <v>10.7038418231543</v>
+        <v>10.90422799099638</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23.8939479032033</v>
+        <v>33.18627812164793</v>
       </c>
       <c r="G25">
-        <v>2.093336324456647</v>
+        <v>3.653524344447297</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>13.71470200638767</v>
+        <v>22.33118528935575</v>
       </c>
       <c r="J25">
-        <v>8.70309172724947</v>
+        <v>11.41356020884882</v>
       </c>
       <c r="K25">
-        <v>13.42097223316232</v>
+        <v>10.35608700582952</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.63217104126219</v>
+        <v>24.37175982719633</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_104/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_104/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.921940299144911</v>
+        <v>13.68822437354627</v>
       </c>
       <c r="C2">
-        <v>5.087245312770772</v>
+        <v>8.305344592347044</v>
       </c>
       <c r="D2">
-        <v>10.73728626441013</v>
+        <v>9.933289489642732</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>33.25604469951789</v>
+        <v>23.35329501723706</v>
       </c>
       <c r="G2">
-        <v>3.656053689898157</v>
+        <v>2.10035924736677</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>22.47910669656748</v>
+        <v>14.0199350215531</v>
       </c>
       <c r="J2">
-        <v>11.3796198932624</v>
+        <v>8.301371417097334</v>
       </c>
       <c r="K2">
-        <v>10.03814764600269</v>
+        <v>12.42144039662733</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>24.49909318008374</v>
+        <v>15.70646741031855</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.602431641741099</v>
+        <v>12.81827208935566</v>
       </c>
       <c r="C3">
-        <v>4.855981155922448</v>
+        <v>7.796406388805825</v>
       </c>
       <c r="D3">
-        <v>10.6268897115429</v>
+        <v>9.384234593276304</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33.32047813878802</v>
+        <v>23.02916165331646</v>
       </c>
       <c r="G3">
-        <v>3.65788762994707</v>
+        <v>2.105296313443853</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>22.58825463905698</v>
+        <v>14.25027523126523</v>
       </c>
       <c r="J3">
-        <v>11.36116819666873</v>
+        <v>8.029400390835297</v>
       </c>
       <c r="K3">
-        <v>9.819035691043004</v>
+        <v>11.69592128909478</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>24.59612689651433</v>
+        <v>15.78895180978789</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.401864274649773</v>
+        <v>12.25349888225128</v>
       </c>
       <c r="C4">
-        <v>4.708529636081979</v>
+        <v>7.466873592519866</v>
       </c>
       <c r="D4">
-        <v>10.56064387513844</v>
+        <v>9.034621919341927</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.36846784632593</v>
+        <v>22.85058377798687</v>
       </c>
       <c r="G4">
-        <v>3.659073094977194</v>
+        <v>2.108419337194227</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22.6596610653076</v>
+        <v>14.40248358744288</v>
       </c>
       <c r="J4">
-        <v>11.35210217758756</v>
+        <v>7.863091909737864</v>
       </c>
       <c r="K4">
-        <v>9.683172433075352</v>
+        <v>11.22689883526783</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>24.66098613734018</v>
+        <v>15.85429222251934</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.319151430931703</v>
+        <v>12.0156445902835</v>
       </c>
       <c r="C5">
-        <v>4.647147431292371</v>
+        <v>7.328313871564345</v>
       </c>
       <c r="D5">
-        <v>10.53406270417903</v>
+        <v>8.889154251284133</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.39013786892627</v>
+        <v>22.78287667459079</v>
       </c>
       <c r="G5">
-        <v>3.659571169788117</v>
+        <v>2.109715602579372</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22.68986320510084</v>
+        <v>14.46711114250887</v>
       </c>
       <c r="J5">
-        <v>11.34897951253314</v>
+        <v>7.795581277839609</v>
       </c>
       <c r="K5">
-        <v>9.627547540010763</v>
+        <v>11.02989243994785</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.68874197657875</v>
+        <v>15.88444651250017</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.305361636748387</v>
+        <v>11.97568376564127</v>
       </c>
       <c r="C6">
-        <v>4.636879251323616</v>
+        <v>7.305048661763158</v>
       </c>
       <c r="D6">
-        <v>10.5296747546231</v>
+        <v>8.864823184913094</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.39386366186236</v>
+        <v>22.77193733357135</v>
       </c>
       <c r="G6">
-        <v>3.659654781361944</v>
+        <v>2.109932288313561</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>22.69494488634605</v>
+        <v>14.47799662111328</v>
       </c>
       <c r="J6">
-        <v>11.34849560149896</v>
+        <v>7.784389702022448</v>
       </c>
       <c r="K6">
-        <v>9.618297619711171</v>
+        <v>10.9968264789046</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.69343077430645</v>
+        <v>15.88966185316774</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.400752578011854</v>
+        <v>12.25032229186534</v>
       </c>
       <c r="C7">
-        <v>4.707706945562177</v>
+        <v>7.465022202446812</v>
       </c>
       <c r="D7">
-        <v>10.5602836775808</v>
+        <v>9.03267201756047</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.36875154454219</v>
+        <v>22.84965026083621</v>
       </c>
       <c r="G7">
-        <v>3.659079751439052</v>
+        <v>2.108436722767752</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22.66006391444017</v>
+        <v>14.40334478091463</v>
       </c>
       <c r="J7">
-        <v>11.35205774580283</v>
+        <v>7.862180256784248</v>
       </c>
       <c r="K7">
-        <v>9.682423206884092</v>
+        <v>11.22426565601481</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>24.66135510015043</v>
+        <v>15.8546848289763</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.812755261027704</v>
+        <v>13.394613682917</v>
       </c>
       <c r="C8">
-        <v>5.008680309741789</v>
+        <v>8.133404899655503</v>
       </c>
       <c r="D8">
-        <v>10.69891919776174</v>
+        <v>9.746644711849532</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>33.27650927595106</v>
+        <v>23.23725103693887</v>
       </c>
       <c r="G8">
-        <v>3.656673728441713</v>
+        <v>2.102042873982529</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>22.51582978525059</v>
+        <v>14.0970505509713</v>
       </c>
       <c r="J8">
-        <v>11.37278970579855</v>
+        <v>8.207506126824276</v>
       </c>
       <c r="K8">
-        <v>9.962917121402992</v>
+        <v>12.17619180693436</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>24.53145297913323</v>
+        <v>15.7317560144304</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.58097209770023</v>
+        <v>15.39633224089314</v>
       </c>
       <c r="C9">
-        <v>5.552762261653081</v>
+        <v>9.308757177586859</v>
       </c>
       <c r="D9">
-        <v>10.98173346374754</v>
+        <v>11.0427676699465</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>33.16269856210133</v>
+        <v>24.16209377968747</v>
       </c>
       <c r="G9">
-        <v>3.652424838237589</v>
+        <v>2.090204822160212</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>22.26782407325422</v>
+        <v>13.58737469009595</v>
       </c>
       <c r="J9">
-        <v>11.43126888985285</v>
+        <v>8.886499526475852</v>
       </c>
       <c r="K9">
-        <v>10.49931529633936</v>
+        <v>13.85484979607133</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>24.31872452096871</v>
+        <v>15.61499371454238</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.11531225801192</v>
+        <v>16.7208588512405</v>
       </c>
       <c r="C10">
-        <v>5.921226049061376</v>
+        <v>10.0901621625584</v>
       </c>
       <c r="D10">
-        <v>11.19448011913829</v>
+        <v>11.92684381465401</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.12021789586265</v>
+        <v>24.94455527535763</v>
       </c>
       <c r="G10">
-        <v>3.64958627796544</v>
+        <v>2.081894568687499</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>22.1068672342915</v>
+        <v>13.27679426289966</v>
       </c>
       <c r="J10">
-        <v>11.48489198106684</v>
+        <v>9.382200496168796</v>
       </c>
       <c r="K10">
-        <v>10.88115339242874</v>
+        <v>14.97286454393508</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>24.18819674654653</v>
+        <v>15.61579079851254</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.35082705644589</v>
+        <v>17.29213963900848</v>
       </c>
       <c r="C11">
-        <v>6.081555159517225</v>
+        <v>10.42801441282057</v>
       </c>
       <c r="D11">
-        <v>11.29197294879144</v>
+        <v>12.3136252453257</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>33.10986128912306</v>
+        <v>25.32318483860789</v>
       </c>
       <c r="G11">
-        <v>3.648355775967352</v>
+        <v>2.078188710029548</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>22.03826317384504</v>
+        <v>13.15150167533713</v>
       </c>
       <c r="J11">
-        <v>11.5115476656727</v>
+        <v>9.606300555560162</v>
       </c>
       <c r="K11">
-        <v>11.05144362735292</v>
+        <v>15.45652612907101</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>24.13444316307361</v>
+        <v>15.63732927589037</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.4388489726549</v>
+        <v>17.50401672338135</v>
       </c>
       <c r="C12">
-        <v>6.141186611945034</v>
+        <v>10.55343980084077</v>
       </c>
       <c r="D12">
-        <v>11.32896265944442</v>
+        <v>12.45784749460529</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>33.10723068679175</v>
+        <v>25.4698363000528</v>
       </c>
       <c r="G12">
-        <v>3.647898507614061</v>
+        <v>2.076795288703982</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>22.01294900801853</v>
+        <v>13.10655623889502</v>
       </c>
       <c r="J12">
-        <v>11.521961576216</v>
+        <v>9.690912851621778</v>
       </c>
       <c r="K12">
-        <v>11.11538009815986</v>
+        <v>15.6361081248896</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>24.11489951654572</v>
+        <v>15.64872790731061</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.41994468755143</v>
+        <v>17.45858264346381</v>
       </c>
       <c r="C13">
-        <v>6.128392499839538</v>
+        <v>10.52653854227773</v>
       </c>
       <c r="D13">
-        <v>11.32099358746249</v>
+        <v>12.42688676904091</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>33.10773979005147</v>
+        <v>25.43810659948166</v>
       </c>
       <c r="G13">
-        <v>3.647996602458696</v>
+        <v>2.077094959771256</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>22.01837128829685</v>
+        <v>13.1161214499328</v>
       </c>
       <c r="J13">
-        <v>11.5197046122687</v>
+        <v>9.672701847785275</v>
       </c>
       <c r="K13">
-        <v>11.1016355266673</v>
+        <v>15.59759040339572</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>24.11907244525721</v>
+        <v>15.64612564931649</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.35809237084986</v>
+        <v>17.30965992804749</v>
       </c>
       <c r="C14">
-        <v>6.086482927707404</v>
+        <v>10.43838344371985</v>
       </c>
       <c r="D14">
-        <v>11.29501486384005</v>
+        <v>12.3255355840886</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>33.10961898368498</v>
+        <v>25.3351843056067</v>
       </c>
       <c r="G14">
-        <v>3.648317982188117</v>
+        <v>2.078073878696406</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>22.03616723502279</v>
+        <v>13.14775266361358</v>
       </c>
       <c r="J14">
-        <v>11.51239804346083</v>
+        <v>9.613266904826222</v>
       </c>
       <c r="K14">
-        <v>11.05671503676618</v>
+        <v>15.4713718898311</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>24.1328190118796</v>
+        <v>15.63820093139606</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.32005256656855</v>
+        <v>17.21786159922321</v>
       </c>
       <c r="C15">
-        <v>6.060670327537558</v>
+        <v>10.38405946222974</v>
       </c>
       <c r="D15">
-        <v>11.27911050652988</v>
+        <v>12.26316222463419</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>33.11093823245867</v>
+        <v>25.27256787734185</v>
       </c>
       <c r="G15">
-        <v>3.648515967761779</v>
+        <v>2.078674760044932</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>22.0471543587411</v>
+        <v>13.16745956692797</v>
       </c>
       <c r="J15">
-        <v>11.50796406482988</v>
+        <v>9.576827513143451</v>
       </c>
       <c r="K15">
-        <v>11.02912681413018</v>
+        <v>15.39359502364015</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>24.14134497007723</v>
+        <v>15.63377494812422</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.0997620567712</v>
+        <v>16.68289870308009</v>
       </c>
       <c r="C16">
-        <v>5.910598507296209</v>
+        <v>10.06772998679296</v>
       </c>
       <c r="D16">
-        <v>11.18812040677716</v>
+        <v>11.90125412948019</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.12107534320569</v>
+        <v>24.92026842057275</v>
       </c>
       <c r="G16">
-        <v>3.649667913388462</v>
+        <v>2.082138186858294</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>22.11144363467798</v>
+        <v>13.28532093508665</v>
       </c>
       <c r="J16">
-        <v>11.48319504591618</v>
+        <v>9.367522537960726</v>
       </c>
       <c r="K16">
-        <v>10.86995082209426</v>
+        <v>14.94075556860253</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>24.19182309283141</v>
+        <v>15.61482618019432</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.96262844159705</v>
+        <v>16.34673842984868</v>
       </c>
       <c r="C17">
-        <v>5.816642001788022</v>
+        <v>9.869174448341015</v>
       </c>
       <c r="D17">
-        <v>11.13246128584086</v>
+        <v>11.67526733391248</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.1295924953883</v>
+        <v>24.70996317576024</v>
       </c>
       <c r="G17">
-        <v>3.650390129460152</v>
+        <v>2.084281414280575</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>22.15206593369452</v>
+        <v>13.36185769275367</v>
       </c>
       <c r="J17">
-        <v>11.46857581725572</v>
+        <v>9.238725220639582</v>
       </c>
       <c r="K17">
-        <v>10.77138528553297</v>
+        <v>14.6565763642433</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>24.22423236028949</v>
+        <v>15.60876557304731</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.88304524205522</v>
+        <v>16.15044359407781</v>
       </c>
       <c r="C18">
-        <v>5.761916451788431</v>
+        <v>9.753311226385176</v>
       </c>
       <c r="D18">
-        <v>11.10051663161964</v>
+        <v>11.54383804134228</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>33.13533540918835</v>
+        <v>24.59113604698446</v>
       </c>
       <c r="G18">
-        <v>3.650811251867383</v>
+        <v>2.085521207447935</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>22.1758652272758</v>
+        <v>13.40737171442936</v>
       </c>
       <c r="J18">
-        <v>11.46038050525115</v>
+        <v>9.164515233763263</v>
       </c>
       <c r="K18">
-        <v>10.71437527662225</v>
+        <v>14.49077620069099</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>24.24340251369036</v>
+        <v>15.60726095859664</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.8559806522697</v>
+        <v>16.08347470773363</v>
       </c>
       <c r="C19">
-        <v>5.743270926741745</v>
+        <v>9.713796376586078</v>
       </c>
       <c r="D19">
-        <v>11.0897135288604</v>
+        <v>11.49909087050979</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>33.13742476801106</v>
+        <v>24.55126948807075</v>
       </c>
       <c r="G19">
-        <v>3.650954820897033</v>
+        <v>2.0859422173689</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>22.183997844328</v>
+        <v>13.42303245026</v>
       </c>
       <c r="J19">
-        <v>11.45764250032822</v>
+        <v>9.139368464884679</v>
       </c>
       <c r="K19">
-        <v>10.69501994662889</v>
+        <v>14.43423555298087</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>24.24998399912827</v>
+        <v>15.60708580744205</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.97730035363913</v>
+        <v>16.38282771941987</v>
       </c>
       <c r="C20">
-        <v>5.826714913251678</v>
+        <v>9.89048262151389</v>
       </c>
       <c r="D20">
-        <v>11.13837938052753</v>
+        <v>11.69947410837848</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.12859845707711</v>
+        <v>24.73212948412273</v>
       </c>
       <c r="G20">
-        <v>3.650312656348198</v>
+        <v>2.084052538501277</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>22.1476966530823</v>
+        <v>13.35355440539477</v>
       </c>
       <c r="J20">
-        <v>11.47011002254786</v>
+        <v>9.252449668060633</v>
       </c>
       <c r="K20">
-        <v>10.78191107425474</v>
+        <v>14.68707063152421</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>24.22072754690186</v>
+        <v>15.60920425159128</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.37629200220121</v>
+        <v>17.3535226978783</v>
       </c>
       <c r="C21">
-        <v>6.098822383757665</v>
+        <v>10.46434471951761</v>
       </c>
       <c r="D21">
-        <v>11.30264375763841</v>
+        <v>12.35536594480533</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>33.10903196696338</v>
+        <v>25.36532619240208</v>
       </c>
       <c r="G21">
-        <v>3.64822334950408</v>
+        <v>2.077786084325768</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>22.03092208654897</v>
+        <v>13.13839226271704</v>
       </c>
       <c r="J21">
-        <v>11.51453552016509</v>
+        <v>9.630731499553979</v>
       </c>
       <c r="K21">
-        <v>11.06992461124027</v>
+        <v>15.50854206758733</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>24.12875926051202</v>
+        <v>15.64043903728779</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.63025151810597</v>
+        <v>17.96198480364344</v>
       </c>
       <c r="C22">
-        <v>6.270343492272305</v>
+        <v>10.82476791226684</v>
       </c>
       <c r="D22">
-        <v>11.41040130718862</v>
+        <v>12.77094789560429</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>33.10377049257245</v>
+        <v>25.79823545569737</v>
       </c>
       <c r="G22">
-        <v>3.646908534179331</v>
+        <v>2.073747923661537</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>21.95847802886257</v>
+        <v>13.01245105382051</v>
       </c>
       <c r="J22">
-        <v>11.54543248593466</v>
+        <v>9.876490507818687</v>
       </c>
       <c r="K22">
-        <v>11.25493543734408</v>
+        <v>16.02462328639944</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>24.07338501969999</v>
+        <v>15.67984418031581</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.49535390108403</v>
+        <v>17.63959674628132</v>
       </c>
       <c r="C23">
-        <v>6.179387196310312</v>
+        <v>10.63373386802684</v>
       </c>
       <c r="D23">
-        <v>11.35286260531708</v>
+        <v>12.55034743708419</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>33.10588966563376</v>
+        <v>25.56543521491059</v>
       </c>
       <c r="G23">
-        <v>3.647605653930951</v>
+        <v>2.075898202130082</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>21.99678791252742</v>
+        <v>13.07825376904362</v>
       </c>
       <c r="J23">
-        <v>11.52877365709071</v>
+        <v>9.745472329522647</v>
       </c>
       <c r="K23">
-        <v>11.15650477585587</v>
+        <v>15.75107737762858</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>24.10250533012982</v>
+        <v>15.65700988314713</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.97066949146864</v>
+        <v>16.36652119798514</v>
       </c>
       <c r="C24">
-        <v>5.822163154812436</v>
+        <v>9.880854527323029</v>
       </c>
       <c r="D24">
-        <v>11.13570363772732</v>
+        <v>11.68853491549998</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.12904522576554</v>
+        <v>24.7221016177121</v>
       </c>
       <c r="G24">
-        <v>3.650347663527504</v>
+        <v>2.08415598943615</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>22.14967061876224</v>
+        <v>13.35730362694176</v>
       </c>
       <c r="J24">
-        <v>11.46941575544031</v>
+        <v>9.24624534832347</v>
       </c>
       <c r="K24">
-        <v>10.77715343020242</v>
+        <v>14.67329171753197</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>24.22231039852848</v>
+        <v>15.60899977362181</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.37804452492168</v>
+        <v>14.88061231753055</v>
       </c>
       <c r="C25">
-        <v>5.4108705192409</v>
+        <v>9.005266964001157</v>
       </c>
       <c r="D25">
-        <v>10.90422799099638</v>
+        <v>10.70384182315429</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>33.18627812164793</v>
+        <v>23.89394790320326</v>
       </c>
       <c r="G25">
-        <v>3.653524344447297</v>
+        <v>2.093336324456244</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>22.33118528935575</v>
+        <v>13.71470200638763</v>
       </c>
       <c r="J25">
-        <v>11.41356020884882</v>
+        <v>8.703091727249449</v>
       </c>
       <c r="K25">
-        <v>10.35608700582952</v>
+        <v>13.42097223316231</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>24.37175982719633</v>
+        <v>15.63217104126216</v>
       </c>
     </row>
   </sheetData>
